--- a/latest_projections/DailyProjections_citywide20220323.xlsx
+++ b/latest_projections/DailyProjections_citywide20220323.xlsx
@@ -458,22 +458,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1425 (1133, 1803)</t>
+          <t>1728 (1377, 2187)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>536 (453, 621)</t>
+          <t>588 (508, 676)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13 (9, 18)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -535,22 +535,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1332 (1050, 1710)</t>
+          <t>1631 (1285, 2090)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>534 (447, 624)</t>
+          <t>591 (506, 685)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13 (9, 18)</t>
+          <t>15 (10, 20)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>13 (8, 18)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -560,22 +560,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>13 (8, 18)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (6, 16)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1259 (976, 1642)</t>
+          <t>1564 (1212, 2034)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>532 (441, 625)</t>
+          <t>595 (504, 693)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13 (9, 18)</t>
+          <t>15 (10, 21)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>13 (8, 18)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>13 (8, 18)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (6, 16)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -689,24 +689,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1196 (909, 1592)</t>
+          <t>1509 (1151, 1994)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>526 (434, 623)</t>
+          <t>594 (500, 696)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>15 (10, 21)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>13 (8, 18)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>11 (6, 16)</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
@@ -714,22 +714,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (6, 17)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1142 (849, 1544)</t>
+          <t>1466 (1099, 1968)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>516 (423, 617)</t>
+          <t>589 (491, 696)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (6, 17)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1095 (794, 1505)</t>
+          <t>1430 (1054, 1949)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>503 (407, 607)</t>
+          <t>580 (477, 692)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11 (6, 16)</t>
+          <t>11 (6, 17)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1053 (745, 1468)</t>
+          <t>1397 (1011, 1932)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>486 (389, 595)</t>
+          <t>568 (460, 686)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>14 (9, 20)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12 (7, 17)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2 (1, 2)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3 (2, 4)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>13 (9, 19)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>11 (7, 17)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>9 (6, 14)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>2 (1, 2)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2 (2, 3)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>13 (8, 18)</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>11 (6, 16)</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
         </is>
       </c>
     </row>
@@ -997,22 +997,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1012 (700, 1435)</t>
+          <t>1369 (972, 1918)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>467 (369, 582)</t>
+          <t>556 (442, 680)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>13 (9, 20)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3 (2, 3)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>13 (9, 20)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>11 (7, 17)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>2 (1, 2)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2 (2, 3)</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>12 (8, 18)</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>10 (6, 16)</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
         </is>
       </c>
     </row>
@@ -1074,22 +1074,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>976 (661, 1414)</t>
+          <t>1346 (938, 1916)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>449 (349, 570)</t>
+          <t>544 (424, 674)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10 (7, 15)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>11 (6, 17)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1099,32 +1099,32 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3 (2, 3)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>14 (9, 20)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>12 (7, 17)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>2 (1, 2)</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2 (2, 3)</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>12 (8, 18)</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>10 (6, 16)</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
         </is>
       </c>
     </row>
@@ -1151,22 +1151,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>941 (623, 1384)</t>
+          <t>1325 (907, 1915)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>432 (329, 558)</t>
+          <t>533 (407, 669)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1176,32 +1176,32 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3 (2, 3)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>14 (9, 20)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>12 (7, 17)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>2 (1, 2)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2 (2, 3)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>12 (8, 18)</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
         </is>
       </c>
     </row>
@@ -1228,22 +1228,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>910 (586, 1367)</t>
+          <t>1308 (878, 1912)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>416 (311, 548)</t>
+          <t>523 (392, 666)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9 (6, 14)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>3 (2, 3)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
     </row>
@@ -1305,22 +1305,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>879 (556, 1346)</t>
+          <t>1292 (852, 1915)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>402 (293, 538)</t>
+          <t>515 (378, 664)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1382,22 +1382,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>852 (525, 1327)</t>
+          <t>1280 (828, 1920)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>388 (277, 530)</t>
+          <t>507 (365, 664)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>11 (7, 18)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1417,12 +1417,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>13 (9, 20)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>11 (6, 17)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1459,34 +1459,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>826 (497, 1311)</t>
+          <t>1269 (805, 1927)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>375 (263, 523)</t>
+          <t>501 (354, 665)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>11 (7, 18)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>2 (1, 2)</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>2 (2, 3)</t>
@@ -1494,12 +1494,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>11 (6, 17)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2 (1, 2)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021 (1623, 2551)</t>
+          <t>2148 (1712, 2740)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>631 (542, 727)</t>
+          <t>664 (574, 765)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17 (11, 23)</t>
+          <t>17 (11, 24)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>11 (7, 18)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 2)</t>
         </is>
       </c>
     </row>
@@ -1613,12 +1613,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1912 (1519, 2445)</t>
+          <t>2067 (1631, 2673)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>636 (542, 738)</t>
+          <t>673 (578, 780)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1690,22 +1690,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1832 (1433, 2384)</t>
+          <t>2015 (1570, 2646)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>638 (540, 745)</t>
+          <t>681 (580, 794)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>17 (11, 24)</t>
+          <t>18 (12, 25)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1767,22 +1767,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1775 (1364, 2343)</t>
+          <t>1981 (1523, 2631)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>636 (533, 748)</t>
+          <t>685 (579, 806)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17 (11, 24)</t>
+          <t>18 (12, 25)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1844,27 +1844,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1722 (1298, 2310)</t>
+          <t>1952 (1480, 2628)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>628 (521, 747)</t>
+          <t>685 (574, 813)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17 (11, 24)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2 (2, 3)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1921,22 +1921,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1674 (1243, 2286)</t>
+          <t>1929 (1440, 2638)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>617 (505, 742)</t>
+          <t>681 (564, 816)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17 (11, 24)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14 (8, 21)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13 (7, 19)</t>
+          <t>13 (7, 20)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1998,22 +1998,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1633 (1189, 2259)</t>
+          <t>1911 (1410, 2649)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>604 (487, 736)</t>
+          <t>675 (552, 818)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16 (11, 23)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>15 (10, 23)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2075,47 +2075,47 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1596 (1143, 2245)</t>
+          <t>1895 (1381, 2669)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>590 (468, 730)</t>
+          <t>668 (539, 819)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>17 (11, 26)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>15 (9, 23)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3 (2, 4)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3 (3, 4)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>16 (10, 23)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>13 (8, 20)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>3 (2, 4)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3 (2, 4)</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>15 (10, 22)</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2152,22 +2152,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1563 (1099, 2232)</t>
+          <t>1885 (1355, 2692)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>576 (449, 723)</t>
+          <t>662 (526, 821)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13 (7, 20)</t>
+          <t>15 (8, 23)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2182,17 +2182,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (3, 4)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>16 (10, 23)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1533 (1057, 2222)</t>
+          <t>1878 (1332, 2719)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>563 (432, 718)</t>
+          <t>656 (514, 825)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12 (7, 19)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2259,22 +2259,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (3, 5)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>16 (10, 23)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1504 (1019, 2219)</t>
+          <t>1870 (1305, 2749)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>551 (415, 714)</t>
+          <t>651 (502, 830)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>12 (7, 19)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2336,22 +2336,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (3, 5)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>16 (10, 23)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2383,22 +2383,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1476 (983, 2209)</t>
+          <t>1866 (1287, 2786)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>540 (400, 711)</t>
+          <t>648 (492, 836)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11 (6, 18)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2413,22 +2413,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (3, 5)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>16 (10, 23)</t>
+          <t>17 (11, 24)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>14 (8, 22)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2460,22 +2460,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1452 (949, 2202)</t>
+          <t>1864 (1268, 2823)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>530 (385, 709)</t>
+          <t>645 (483, 844)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13 (8, 21)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11 (6, 18)</t>
+          <t>13 (7, 23)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2490,22 +2490,22 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>3 (3, 5)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>17 (11, 25)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>14 (8, 22)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>3 (2, 4)</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>16 (10, 23)</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>13 (8, 20)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2537,27 +2537,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1427 (914, 2201)</t>
+          <t>1866 (1251, 2866)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>522 (372, 708)</t>
+          <t>644 (474, 853)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13 (8, 21)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10 (6, 18)</t>
+          <t>13 (7, 23)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2 (2, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2567,22 +2567,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>3 (3, 5)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>17 (11, 25)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14 (8, 22)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>3 (2, 4)</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>15 (10, 23)</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>13 (7, 20)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2 (2, 4)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83 (44, 147)</t>
+          <t>85 (45, 152)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>71 (32, 133)</t>
+          <t>73 (33, 139)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2704,17 +2704,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>83 (44, 147)</t>
+          <t>85 (45, 152)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>71 (32, 133)</t>
+          <t>73 (33, 139)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84 (44, 148)</t>
+          <t>88 (47, 155)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72 (33, 134)</t>
+          <t>75 (34, 142)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>84 (44, 148)</t>
+          <t>88 (47, 155)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>72 (33, 134)</t>
+          <t>75 (34, 142)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>8 (4, 14)</t>
         </is>
       </c>
     </row>
@@ -2813,17 +2813,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85 (45, 149)</t>
+          <t>89 (48, 158)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72 (33, 135)</t>
+          <t>76 (35, 144)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2833,17 +2833,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>85 (45, 149)</t>
+          <t>89 (48, 158)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>72 (33, 135)</t>
+          <t>76 (35, 144)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2875,17 +2875,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85 (45, 150)</t>
+          <t>91 (48, 161)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72 (33, 136)</t>
+          <t>78 (36, 147)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>85 (45, 150)</t>
+          <t>91 (48, 161)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>72 (33, 136)</t>
+          <t>78 (36, 147)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85 (44, 150)</t>
+          <t>92 (49, 163)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72 (33, 136)</t>
+          <t>79 (36, 149)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>85 (44, 150)</t>
+          <t>92 (49, 163)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>72 (33, 136)</t>
+          <t>79 (36, 149)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84 (44, 150)</t>
+          <t>93 (49, 165)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72 (32, 136)</t>
+          <t>79 (36, 151)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>84 (44, 150)</t>
+          <t>93 (49, 165)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>72 (32, 136)</t>
+          <t>79 (36, 151)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>9 (5, 15)</t>
         </is>
       </c>
     </row>
@@ -3061,17 +3061,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83 (43, 149)</t>
+          <t>93 (49, 167)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70 (31, 135)</t>
+          <t>79 (36, 152)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3081,17 +3081,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>83 (43, 149)</t>
+          <t>93 (49, 167)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>70 (31, 135)</t>
+          <t>79 (36, 152)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81 (41, 148)</t>
+          <t>93 (48, 168)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>69 (30, 134)</t>
+          <t>79 (35, 153)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>81 (41, 148)</t>
+          <t>93 (48, 168)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>69 (30, 134)</t>
+          <t>79 (35, 153)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79 (40, 145)</t>
+          <t>92 (47, 168)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>67 (28, 131)</t>
+          <t>78 (34, 153)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 21)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>79 (40, 145)</t>
+          <t>92 (47, 168)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>67 (28, 131)</t>
+          <t>78 (34, 153)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 21)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77 (38, 143)</t>
+          <t>91 (46, 167)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>64 (27, 129)</t>
+          <t>76 (33, 152)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 21)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>10 (5, 16)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>77 (38, 143)</t>
+          <t>91 (46, 167)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>64 (27, 129)</t>
+          <t>76 (33, 152)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 21)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>10 (5, 16)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>74 (36, 139)</t>
+          <t>89 (45, 166)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61 (25, 125)</t>
+          <t>75 (31, 151)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 21)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>10 (5, 16)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>74 (36, 139)</t>
+          <t>89 (45, 166)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>61 (25, 125)</t>
+          <t>75 (31, 151)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 21)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>10 (5, 16)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>71 (34, 136)</t>
+          <t>87 (43, 165)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>59 (23, 122)</t>
+          <t>73 (30, 149)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 22)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>10 (5, 17)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>71 (34, 136)</t>
+          <t>87 (43, 165)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>59 (23, 122)</t>
+          <t>73 (30, 149)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 22)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>10 (5, 17)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>68 (32, 132)</t>
+          <t>85 (41, 163)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>56 (22, 118)</t>
+          <t>71 (28, 147)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 22)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8 (5, 15)</t>
+          <t>10 (5, 17)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>68 (32, 132)</t>
+          <t>85 (41, 163)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>56 (22, 118)</t>
+          <t>71 (28, 147)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (4, 22)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>8 (5, 15)</t>
+          <t>10 (5, 17)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>65 (30, 128)</t>
+          <t>83 (40, 161)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>53 (20, 114)</t>
+          <t>69 (27, 145)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (4, 22)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>10 (5, 17)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>65 (30, 128)</t>
+          <t>83 (40, 161)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>53 (20, 114)</t>
+          <t>69 (27, 145)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (4, 22)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>10 (5, 17)</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>96 (51, 172)</t>
+          <t>94 (49, 170)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>82 (37, 156)</t>
+          <t>80 (35, 154)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3577,12 +3577,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96 (51, 172)</t>
+          <t>94 (49, 170)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>82 (37, 156)</t>
+          <t>80 (35, 154)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>99 (53, 176)</t>
+          <t>97 (51, 175)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>85 (39, 160)</t>
+          <t>83 (37, 159)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>99 (53, 176)</t>
+          <t>97 (51, 175)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>85 (39, 160)</t>
+          <t>83 (37, 159)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>102 (54, 179)</t>
+          <t>101 (53, 180)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>87 (40, 163)</t>
+          <t>86 (39, 164)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10 (4, 21)</t>
+          <t>10 (5, 22)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10 (5, 16)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>102 (54, 179)</t>
+          <t>101 (53, 180)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>87 (40, 163)</t>
+          <t>86 (39, 164)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10 (4, 21)</t>
+          <t>10 (5, 22)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10 (5, 16)</t>
+          <t>9 (5, 16)</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>104 (55, 183)</t>
+          <t>104 (55, 185)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>89 (41, 167)</t>
+          <t>89 (40, 169)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3758,17 +3758,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10 (5, 17)</t>
+          <t>10 (5, 16)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>104 (55, 183)</t>
+          <t>104 (55, 185)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>89 (41, 167)</t>
+          <t>89 (40, 169)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10 (5, 17)</t>
+          <t>10 (5, 16)</t>
         </is>
       </c>
     </row>
@@ -3805,17 +3805,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>106 (56, 186)</t>
+          <t>106 (56, 190)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>91 (42, 170)</t>
+          <t>91 (41, 173)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>11 (5, 23)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3825,17 +3825,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>106 (56, 186)</t>
+          <t>106 (56, 190)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>91 (42, 170)</t>
+          <t>91 (41, 173)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>11 (5, 23)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>107 (56, 189)</t>
+          <t>108 (57, 195)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>92 (42, 173)</t>
+          <t>93 (42, 178)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3887,12 +3887,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>107 (56, 189)</t>
+          <t>108 (57, 195)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>92 (42, 173)</t>
+          <t>93 (42, 178)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>107 (56, 192)</t>
+          <t>110 (57, 199)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>92 (41, 175)</t>
+          <t>94 (42, 182)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11 (5, 23)</t>
+          <t>12 (5, 24)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10 (6, 18)</t>
+          <t>11 (6, 18)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>107 (56, 192)</t>
+          <t>110 (57, 199)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>92 (41, 175)</t>
+          <t>94 (42, 182)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>11 (5, 23)</t>
+          <t>12 (5, 24)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10 (6, 18)</t>
+          <t>11 (6, 18)</t>
         </is>
       </c>
     </row>
@@ -3991,17 +3991,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>107 (56, 193)</t>
+          <t>111 (57, 203)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>92 (41, 176)</t>
+          <t>95 (42, 185)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12 (5, 24)</t>
+          <t>12 (5, 25)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4011,17 +4011,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>107 (56, 193)</t>
+          <t>111 (57, 203)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>92 (41, 176)</t>
+          <t>95 (42, 185)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12 (5, 24)</t>
+          <t>12 (5, 25)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4053,17 +4053,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>106 (55, 194)</t>
+          <t>112 (57, 206)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>91 (40, 176)</t>
+          <t>95 (41, 188)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12 (5, 24)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>106 (55, 194)</t>
+          <t>112 (57, 206)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>91 (40, 176)</t>
+          <t>95 (41, 188)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12 (5, 24)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4115,17 +4115,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>105 (53, 194)</t>
+          <t>113 (57, 209)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>89 (38, 176)</t>
+          <t>95 (41, 190)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12 (5, 25)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4135,17 +4135,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>105 (53, 194)</t>
+          <t>113 (57, 209)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>89 (38, 176)</t>
+          <t>95 (41, 190)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>12 (5, 25)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>104 (52, 193)</t>
+          <t>113 (56, 211)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>88 (37, 175)</t>
+          <t>95 (40, 192)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12 (5, 25)</t>
+          <t>13 (6, 27)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11 (6, 19)</t>
+          <t>12 (6, 20)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>104 (52, 193)</t>
+          <t>113 (56, 211)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>88 (37, 175)</t>
+          <t>95 (40, 192)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12 (5, 25)</t>
+          <t>13 (6, 27)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>11 (6, 19)</t>
+          <t>12 (6, 20)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>102 (50, 192)</t>
+          <t>112 (56, 213)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>85 (35, 174)</t>
+          <t>95 (39, 193)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12 (5, 25)</t>
+          <t>13 (6, 27)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11 (6, 19)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>102 (50, 192)</t>
+          <t>112 (56, 213)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>85 (35, 174)</t>
+          <t>95 (39, 193)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>12 (5, 25)</t>
+          <t>13 (6, 27)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>11 (6, 19)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>99 (49, 190)</t>
+          <t>112 (55, 215)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>83 (34, 172)</t>
+          <t>94 (38, 195)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12 (5, 26)</t>
+          <t>13 (6, 28)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>12 (7, 21)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>99 (49, 190)</t>
+          <t>112 (55, 215)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>83 (34, 172)</t>
+          <t>94 (38, 195)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12 (5, 26)</t>
+          <t>13 (6, 28)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>12 (7, 21)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>97 (47, 188)</t>
+          <t>111 (54, 216)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>81 (32, 169)</t>
+          <t>93 (37, 196)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12 (5, 26)</t>
+          <t>14 (6, 28)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>12 (7, 21)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>97 (47, 188)</t>
+          <t>111 (54, 216)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>81 (32, 169)</t>
+          <t>93 (37, 196)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12 (5, 26)</t>
+          <t>14 (6, 28)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>12 (7, 21)</t>
         </is>
       </c>
     </row>
